--- a/protoconf/enum.xlsx
+++ b/protoconf/enum.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gaeaprotocol\protoconf\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="13050"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>奖励类型</t>
   </si>
@@ -39,160 +44,23 @@
     <t>[奖励类型]钻石</t>
   </si>
   <si>
-    <t>[奖励类型]金币</t>
-  </si>
-  <si>
-    <t>[奖励类型]道具</t>
-  </si>
-  <si>
-    <t>[奖励类型]步数</t>
-  </si>
-  <si>
-    <t>许愿瓶活动属性类型</t>
+    <t>[个人类型]无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[属性类型]无</t>
+    <t>个人类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[属性类型]体力恢复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[属性类型]盾牌概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[属性类型]尼古拉斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[属性类型]雷克斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[属性类型]魔法树金币体力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[属性类型]魔法树碎片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[属性类型]拼图碎片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[属性类型]矿工加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[属性类型]建岛修岛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[属性类型]攻击打炮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[属性类型]宠物经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无VIP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是VIP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[VIP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>是</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[VIP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>否</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否展示类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭展示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启展示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[展示]开启</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[展示]关闭</t>
+    <t>[个人类型]钻石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,7 +71,6 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -250,7 +117,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -263,9 +130,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -275,6 +139,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -323,7 +190,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -358,7 +225,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -566,27 +433,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.875" customWidth="1"/>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
     <col min="2" max="3" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -597,7 +464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -608,7 +475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -616,244 +483,124 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="B9">
         <v>1</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>30</v>
-      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A12:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -862,12 +609,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
